--- a/100runs/run062/NotionalETEOutput062.xlsx
+++ b/100runs/run062/NotionalETEOutput062.xlsx
@@ -55,10 +55,10 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_472.MISSILE_SOMERSAULT_472</t>
+    <t>MISSILE_SOMERSAULT_499.MISSILE_SOMERSAULT_499</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_195.MISSILE_BRAVER_195</t>
+    <t>MISSILE_BRAVER_217.MISSILE_BRAVER_217</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G2">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H2">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I2">
-        <v>-1145.090014100345</v>
+        <v>1114858.860757164</v>
       </c>
       <c r="J2">
-        <v>1990.423247629933</v>
+        <v>4843221.37890651</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984362.030702849</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G3">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H3">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I3">
-        <v>-1122.482888148093</v>
+        <v>1114888.474687309</v>
       </c>
       <c r="J3">
-        <v>1942.004621501109</v>
+        <v>4843172.727337318</v>
       </c>
       <c r="K3">
-        <v>409.5798179899159</v>
+        <v>3984665.826062702</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G4">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H4">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I4">
-        <v>-1099.319082517441</v>
+        <v>1114918.817833239</v>
       </c>
       <c r="J4">
-        <v>1893.585995372285</v>
+        <v>4843124.075768124</v>
       </c>
       <c r="K4">
-        <v>798.7361088083691</v>
+        <v>3984954.472793366</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G5">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H5">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I5">
-        <v>-1075.584889483445</v>
+        <v>1114949.908151223</v>
       </c>
       <c r="J5">
-        <v>1845.16736924346</v>
+        <v>4843075.424198932</v>
       </c>
       <c r="K5">
-        <v>1167.468872455362</v>
+        <v>3985227.970894839</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G6">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H6">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I6">
-        <v>-1051.266263781044</v>
+        <v>1114981.764039685</v>
       </c>
       <c r="J6">
-        <v>1796.748743114636</v>
+        <v>4843026.772629741</v>
       </c>
       <c r="K6">
-        <v>1515.778108930893</v>
+        <v>3985486.320367122</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G7">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H7">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I7">
-        <v>-1026.348814293446</v>
+        <v>1115014.404350093</v>
       </c>
       <c r="J7">
-        <v>1748.330116985812</v>
+        <v>4842978.121060548</v>
       </c>
       <c r="K7">
-        <v>1843.663818234964</v>
+        <v>3985729.521210215</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G8">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H8">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I8">
-        <v>-1000.81779553585</v>
+        <v>1115047.848398116</v>
       </c>
       <c r="J8">
-        <v>1699.911490856988</v>
+        <v>4842929.469491355</v>
       </c>
       <c r="K8">
-        <v>2151.126000367574</v>
+        <v>3985957.573424116</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G9">
-        <v>-76.97958890152383</v>
+        <v>4841129.344437275</v>
       </c>
       <c r="H9">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I9">
-        <v>-974.6580989294544</v>
+        <v>1115082.115975054</v>
       </c>
       <c r="J9">
-        <v>1651.492864728164</v>
+        <v>4842880.817922163</v>
       </c>
       <c r="K9">
-        <v>2438.164655328722</v>
+        <v>3986170.477008829</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>316.1503768527235</v>
+        <v>1116580.474222071</v>
       </c>
       <c r="G10">
-        <v>-64.26809194100947</v>
+        <v>4841145.857272794</v>
       </c>
       <c r="H10">
-        <v>579.6024056292324</v>
+        <v>3985223.160173645</v>
       </c>
       <c r="I10">
-        <v>-947.8542438606059</v>
+        <v>1115117.227359549</v>
       </c>
       <c r="J10">
-        <v>1603.07423859934</v>
+        <v>4842832.166352971</v>
       </c>
       <c r="K10">
-        <v>2704.779783118408</v>
+        <v>3986368.23196435</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>245.3695734210794</v>
+        <v>1116531.793572397</v>
       </c>
       <c r="G11">
-        <v>-51.55659498049511</v>
+        <v>4841162.370108312</v>
       </c>
       <c r="H11">
-        <v>714.0662635582758</v>
+        <v>3985422.41432202</v>
       </c>
       <c r="I11">
-        <v>-920.3903685197814</v>
+        <v>1115153.203329585</v>
       </c>
       <c r="J11">
-        <v>1554.655612470516</v>
+        <v>4842783.514783778</v>
       </c>
       <c r="K11">
-        <v>2950.971383736633</v>
+        <v>3986550.838290682</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>203.7894021533854</v>
+        <v>1116503.196132798</v>
       </c>
       <c r="G12">
-        <v>-38.84509801998077</v>
+        <v>4841178.882943831</v>
       </c>
       <c r="H12">
-        <v>794.1598140835783</v>
+        <v>3985541.100283036</v>
       </c>
       <c r="I12">
-        <v>-892.2502205149914</v>
+        <v>1115190.065174785</v>
       </c>
       <c r="J12">
-        <v>1506.236986341691</v>
+        <v>4842734.863214585</v>
       </c>
       <c r="K12">
-        <v>3176.739457183398</v>
+        <v>3986718.295987824</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>177.5409475735133</v>
+        <v>1116485.14333091</v>
       </c>
       <c r="G13">
-        <v>-26.13360105946641</v>
+        <v>4841195.39577935</v>
       </c>
       <c r="H13">
-        <v>851.3972613278792</v>
+        <v>3985625.917117697</v>
       </c>
       <c r="I13">
-        <v>-863.4171472540443</v>
+        <v>1115227.834709012</v>
       </c>
       <c r="J13">
-        <v>1457.818360212867</v>
+        <v>4842686.211645394</v>
       </c>
       <c r="K13">
-        <v>3382.084003458702</v>
+        <v>3986870.605055775</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>159.2353818982428</v>
+        <v>1116472.553380153</v>
       </c>
       <c r="G14">
-        <v>-13.42210409895205</v>
+        <v>4841211.908614868</v>
       </c>
       <c r="H14">
-        <v>895.9680308320314</v>
+        <v>3985691.963941406</v>
       </c>
       <c r="I14">
-        <v>-833.8740860899877</v>
+        <v>1115266.534283271</v>
       </c>
       <c r="J14">
-        <v>1409.399734084043</v>
+        <v>4842637.560076201</v>
       </c>
       <c r="K14">
-        <v>3567.005022562544</v>
+        <v>3987007.765494536</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>145.5788817153459</v>
+        <v>1116463.160899862</v>
       </c>
       <c r="G15">
-        <v>-0.7106071384376994</v>
+        <v>4841228.421450388</v>
       </c>
       <c r="H15">
-        <v>932.4749482799466</v>
+        <v>3985746.061413083</v>
       </c>
       <c r="I15">
-        <v>-803.6035542238843</v>
+        <v>1115306.186798943</v>
       </c>
       <c r="J15">
-        <v>1360.981107955219</v>
+        <v>4842588.908507009</v>
       </c>
       <c r="K15">
-        <v>3731.502514494925</v>
+        <v>3987129.777304106</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>134.9014056460323</v>
+        <v>1116455.817291896</v>
       </c>
       <c r="G16">
-        <v>12.00088982207666</v>
+        <v>4841244.934285905</v>
       </c>
       <c r="H16">
-        <v>963.3936424825174</v>
+        <v>3985791.878022669</v>
       </c>
       <c r="I16">
-        <v>-772.5876383589567</v>
+        <v>1115346.815721335</v>
       </c>
       <c r="J16">
-        <v>1312.562481826395</v>
+        <v>4842540.256937816</v>
       </c>
       <c r="K16">
-        <v>3875.576479255844</v>
+        <v>3987236.640484487</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>126.2625500534324</v>
+        <v>1116449.875778346</v>
       </c>
       <c r="G17">
-        <v>24.71238678259102</v>
+        <v>4841261.447121425</v>
       </c>
       <c r="H17">
-        <v>990.2099785698286</v>
+        <v>3985831.615587037</v>
       </c>
       <c r="I17">
-        <v>-740.8079840999744</v>
+        <v>1115388.445093562</v>
       </c>
       <c r="J17">
-        <v>1264.143855697571</v>
+        <v>4842491.605368624</v>
       </c>
       <c r="K17">
-        <v>3999.226916845302</v>
+        <v>3987328.355035677</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>119.0892217148828</v>
+        <v>1116444.942205019</v>
       </c>
       <c r="G18">
-        <v>37.42388374310536</v>
+        <v>4841277.959956943</v>
       </c>
       <c r="H18">
-        <v>1013.886149759289</v>
+        <v>3985866.699924194</v>
       </c>
       <c r="I18">
-        <v>-708.2457850916107</v>
+        <v>1115431.099550782</v>
       </c>
       <c r="J18">
-        <v>1215.725229568746</v>
+        <v>4842442.953799431</v>
       </c>
       <c r="K18">
-        <v>4102.4538272633</v>
+        <v>3987404.920957677</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>113.0103656738581</v>
+        <v>1116440.76137283</v>
       </c>
       <c r="G19">
-        <v>50.13538070361974</v>
+        <v>4841294.472792462</v>
       </c>
       <c r="H19">
-        <v>1035.081087303238</v>
+        <v>3985898.107465933</v>
       </c>
       <c r="I19">
-        <v>-674.8817718893397</v>
+        <v>1115474.80433477</v>
       </c>
       <c r="J19">
-        <v>1167.306603439922</v>
+        <v>4842394.302230239</v>
       </c>
       <c r="K19">
-        <v>4185.257210509836</v>
+        <v>3987466.338250487</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>107.7740242499374</v>
+        <v>1116437.159993783</v>
       </c>
       <c r="G20">
-        <v>62.84687766413408</v>
+        <v>4841310.985627981</v>
       </c>
       <c r="H20">
-        <v>1054.265872013872</v>
+        <v>3985926.53627943</v>
       </c>
       <c r="I20">
-        <v>-640.696200556292</v>
+        <v>1115519.585308856</v>
       </c>
       <c r="J20">
-        <v>1118.887977311098</v>
+        <v>4842345.650661047</v>
       </c>
       <c r="K20">
-        <v>4247.637066584911</v>
+        <v>3987512.606914107</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>103.2024276160114</v>
+        <v>1116434.015803785</v>
       </c>
       <c r="G21">
-        <v>75.55837462464844</v>
+        <v>4841327.498463499</v>
       </c>
       <c r="H21">
-        <v>1071.788982287088</v>
+        <v>3985952.502754498</v>
       </c>
       <c r="I21">
-        <v>-605.6688409793171</v>
+        <v>1115565.468973231</v>
       </c>
       <c r="J21">
-        <v>1070.469351182274</v>
+        <v>4842296.999091854</v>
       </c>
       <c r="K21">
-        <v>4289.593395488525</v>
+        <v>3987543.726948536</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>99.16613987092096</v>
+        <v>1116431.239781189</v>
       </c>
       <c r="G22">
-        <v>88.2698715851628</v>
+        <v>4841344.011299018</v>
       </c>
       <c r="H22">
-        <v>1087.915462806585</v>
+        <v>3985976.399645392</v>
       </c>
       <c r="I22">
-        <v>-569.7789648973389</v>
+        <v>1115612.482480629</v>
       </c>
       <c r="J22">
-        <v>1022.05072505345</v>
+        <v>4842248.347522662</v>
       </c>
       <c r="K22">
-        <v>4311.126197220678</v>
+        <v>3987559.698353775</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>95.56840720609864</v>
+        <v>1116428.765381988</v>
       </c>
       <c r="G23">
-        <v>100.9813685456772</v>
+        <v>4841360.524134536</v>
       </c>
       <c r="H23">
-        <v>1102.85160173954</v>
+        <v>3985998.532638517</v>
       </c>
       <c r="I23">
-        <v>-533.0053336349226</v>
+        <v>1115660.653652395</v>
       </c>
       <c r="J23">
-        <v>973.6320989246256</v>
+        <v>4842199.69595347</v>
       </c>
       <c r="K23">
-        <v>4312.235471781369</v>
+        <v>3987560.521129824</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>92.33527622043624</v>
+        <v>1116426.541743526</v>
       </c>
       <c r="G24">
-        <v>113.6928655061915</v>
+        <v>4841377.036970056</v>
       </c>
       <c r="H24">
-        <v>1116.761109305965</v>
+        <v>3986019.144326499</v>
       </c>
       <c r="I24">
-        <v>-495.32618553379</v>
+        <v>1115710.010994949</v>
       </c>
       <c r="J24">
-        <v>925.2134727958013</v>
+        <v>4842151.044384276</v>
       </c>
       <c r="K24">
-        <v>4292.921219170599</v>
+        <v>3987546.195276682</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>89.40912961564693</v>
+        <v>1116424.529238569</v>
       </c>
       <c r="G25">
-        <v>126.4043624667059</v>
+        <v>4841393.549805574</v>
       </c>
       <c r="H25">
-        <v>1129.776084744984</v>
+        <v>3986038.430459496</v>
       </c>
       <c r="I25">
-        <v>-456.7192230748471</v>
+        <v>1115760.583716656</v>
       </c>
       <c r="J25">
-        <v>876.7948466669773</v>
+        <v>4842102.392815084</v>
       </c>
       <c r="K25">
-        <v>4253.183439388368</v>
+        <v>3987516.720794351</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>86.74432675752514</v>
+        <v>1116422.696477028</v>
       </c>
       <c r="G26">
-        <v>139.1158594272202</v>
+        <v>4841410.062641093</v>
       </c>
       <c r="H26">
-        <v>1142.004664890314</v>
+        <v>3986056.551279173</v>
       </c>
       <c r="I26">
-        <v>-417.1615996831072</v>
+        <v>1115812.401745108</v>
       </c>
       <c r="J26">
-        <v>828.3762205381531</v>
+        <v>4842053.741245892</v>
       </c>
       <c r="K26">
-        <v>4193.022132434676</v>
+        <v>3987472.097682829</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>84.30418518390277</v>
+        <v>1116421.018229942</v>
       </c>
       <c r="G27">
-        <v>151.8273563877346</v>
+        <v>4841426.575476611</v>
       </c>
       <c r="H27">
-        <v>1153.536490801828</v>
+        <v>3986073.63961939</v>
       </c>
       <c r="I27">
-        <v>-376.6299062076919</v>
+        <v>1115865.49574484</v>
       </c>
       <c r="J27">
-        <v>779.9575944093289</v>
+        <v>4842005.0896767</v>
       </c>
       <c r="K27">
-        <v>4112.437298309522</v>
+        <v>3987412.325942117</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>82.05884183477028</v>
+        <v>1116419.473958506</v>
       </c>
       <c r="G28">
-        <v>164.5388533482489</v>
+        <v>4841443.088312129</v>
       </c>
       <c r="H28">
-        <v>1164.44669925037</v>
+        <v>3986089.806820945</v>
       </c>
       <c r="I28">
-        <v>-335.100157068919</v>
+        <v>1115919.897135469</v>
       </c>
       <c r="J28">
-        <v>731.5389682805048</v>
+        <v>4841956.438107507</v>
       </c>
       <c r="K28">
-        <v>4011.428937012908</v>
+        <v>3987337.405572215</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>79.98370647993069</v>
+        <v>1116418.046750388</v>
       </c>
       <c r="G29">
-        <v>177.2503503087633</v>
+        <v>4841459.601147649</v>
       </c>
       <c r="H29">
-        <v>1174.798892368787</v>
+        <v>3986105.147132129</v>
       </c>
       <c r="I29">
-        <v>-292.547776064272</v>
+        <v>1115975.638110294</v>
       </c>
       <c r="J29">
-        <v>683.1203421516806</v>
+        <v>4841907.786538315</v>
       </c>
       <c r="K29">
-        <v>3889.997048544832</v>
+        <v>3987247.336573123</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>78.05832298139893</v>
+        <v>1116416.722536547</v>
       </c>
       <c r="G30">
-        <v>189.9618472692776</v>
+        <v>4841476.113983167</v>
       </c>
       <c r="H30">
-        <v>1184.647384149694</v>
+        <v>3986119.741037679</v>
       </c>
       <c r="I30">
-        <v>-248.9475818248584</v>
+        <v>1116032.751655343</v>
       </c>
       <c r="J30">
-        <v>634.7017160228563</v>
+        <v>4841859.134969123</v>
       </c>
       <c r="K30">
-        <v>3748.141632905294</v>
+        <v>3987142.11894484</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>76.26551718403302</v>
+        <v>1116415.489505178</v>
       </c>
       <c r="G31">
-        <v>202.673344229792</v>
+        <v>4841492.626818686</v>
       </c>
       <c r="H31">
-        <v>1194.038925330145</v>
+        <v>3986133.657814787</v>
       </c>
       <c r="I31">
-        <v>-204.2737729137425</v>
+        <v>1116091.271568896</v>
       </c>
       <c r="J31">
-        <v>586.2830898940323</v>
+        <v>4841810.483399929</v>
       </c>
       <c r="K31">
-        <v>3585.862690094297</v>
+        <v>3987021.752687367</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>74.590749950179</v>
+        <v>1116414.337656752</v>
       </c>
       <c r="G32">
-        <v>215.3848411903064</v>
+        <v>4841509.139654205</v>
       </c>
       <c r="H32">
-        <v>1203.014045571973</v>
+        <v>3986146.957521994</v>
       </c>
       <c r="I32">
-        <v>-158.499912557341</v>
+        <v>1116151.232481483</v>
       </c>
       <c r="J32">
-        <v>537.864463765208</v>
+        <v>4841761.831830737</v>
       </c>
       <c r="K32">
-        <v>3403.160220111837</v>
+        <v>3986886.237800703</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>73.02161944850104</v>
+        <v>1116413.258461709</v>
       </c>
       <c r="G33">
-        <v>228.0963381508207</v>
+        <v>4841525.652489723</v>
       </c>
       <c r="H33">
-        <v>1211.60811051687</v>
+        <v>3986159.692565581</v>
       </c>
       <c r="I33">
-        <v>-111.5989130008422</v>
+        <v>1116212.669876379</v>
       </c>
       <c r="J33">
-        <v>489.4458376363841</v>
+        <v>4841713.180261545</v>
       </c>
       <c r="K33">
-        <v>3200.034222957917</v>
+        <v>3986735.57428485</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>71.54747366117091</v>
+        <v>1116412.244593949</v>
       </c>
       <c r="G34">
-        <v>240.8078351113351</v>
+        <v>4841542.165325242</v>
       </c>
       <c r="H34">
-        <v>1219.852163448025</v>
+        <v>3986171.90894678</v>
       </c>
       <c r="I34">
-        <v>-63.54301947839298</v>
+        <v>1116275.620110603</v>
       </c>
       <c r="J34">
-        <v>441.0272115075598</v>
+        <v>4841664.528692354</v>
       </c>
       <c r="K34">
-        <v>2976.484698632535</v>
+        <v>3986569.762139806</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>70.15910539277732</v>
+        <v>1116411.289721073</v>
       </c>
       <c r="G35">
-        <v>253.5193320718494</v>
+        <v>4841558.678160761</v>
       </c>
       <c r="H35">
-        <v>1227.773602170617</v>
+        <v>3986183.6472648</v>
       </c>
       <c r="I35">
-        <v>-14.30379378856505</v>
+        <v>1116340.120436432</v>
       </c>
       <c r="J35">
-        <v>392.6085853787356</v>
+        <v>4841615.87712316</v>
       </c>
       <c r="K35">
-        <v>2732.511647135691</v>
+        <v>3986388.801365572</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>68.84850980366211</v>
+        <v>1116410.388337624</v>
       </c>
       <c r="G36">
-        <v>266.2308290323638</v>
+        <v>4841575.190996279</v>
       </c>
       <c r="H36">
-        <v>1235.396728369967</v>
+        <v>3986194.943530892</v>
       </c>
       <c r="I36">
-        <v>36.14790253461805</v>
+        <v>1116406.209023445</v>
       </c>
       <c r="J36">
-        <v>344.1899592499116</v>
+        <v>4841567.225553968</v>
       </c>
       <c r="K36">
-        <v>2468.115068467388</v>
+        <v>3986192.691962148</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>67.60868986941311</v>
+        <v>1116409.535631283</v>
       </c>
       <c r="G37">
-        <v>278.9423259928781</v>
+        <v>4841591.703831798</v>
       </c>
       <c r="H37">
-        <v>1242.743197233377</v>
+        <v>3986205.829834613</v>
       </c>
       <c r="I37">
-        <v>87.8419254650499</v>
+        <v>1116473.924981113</v>
       </c>
       <c r="J37">
-        <v>295.7713331210873</v>
+        <v>4841518.573984776</v>
       </c>
       <c r="K37">
-        <v>2183.294962627623</v>
+        <v>3985981.433929534</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>66.43349896327366</v>
+        <v>1116408.727374609</v>
       </c>
       <c r="G38">
-        <v>291.6538229533925</v>
+        <v>4841608.216667316</v>
       </c>
       <c r="H38">
-        <v>1249.832388305081</v>
+        <v>3986216.33489338</v>
       </c>
       <c r="I38">
-        <v>140.8088661525151</v>
+        <v>1116543.308381941</v>
       </c>
       <c r="J38">
-        <v>247.3527069922633</v>
+        <v>4841469.922415583</v>
       </c>
       <c r="K38">
-        <v>1878.051329616397</v>
+        <v>3985755.027267729</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>65.31751247298671</v>
+        <v>1116407.959836735</v>
       </c>
       <c r="G39">
-        <v>304.3653199139069</v>
+        <v>4841624.729502835</v>
       </c>
       <c r="H39">
-        <v>1256.681713573821</v>
+        <v>3986226.484509005</v>
       </c>
       <c r="I39">
-        <v>195.0800690257166</v>
+        <v>1116614.400285183</v>
       </c>
       <c r="J39">
-        <v>198.934080863439</v>
+        <v>4841421.27084639</v>
       </c>
       <c r="K39">
-        <v>1552.384169433708</v>
+        <v>3985513.471976734</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>64.25592233049565</v>
+        <v>1116407.229710835</v>
       </c>
       <c r="G40">
-        <v>317.0768168744212</v>
+        <v>4841641.242338355</v>
       </c>
       <c r="H40">
-        <v>1263.306875124854</v>
+        <v>3986236.30194949</v>
       </c>
       <c r="I40">
-        <v>250.68765034108</v>
+        <v>1116687.242761138</v>
       </c>
       <c r="J40">
-        <v>150.5154547346148</v>
+        <v>4841372.619277198</v>
       </c>
       <c r="K40">
-        <v>1206.293482079559</v>
+        <v>3985256.768056549</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>63.24444977493503</v>
+        <v>1116406.534054121</v>
       </c>
       <c r="G41">
-        <v>329.7883138349356</v>
+        <v>4841657.755173872</v>
       </c>
       <c r="H41">
-        <v>1269.722081950944</v>
+        <v>3986245.808270315</v>
       </c>
       <c r="I41">
-        <v>307.6645171882967</v>
+        <v>1116761.87891605</v>
       </c>
       <c r="J41">
-        <v>102.0968286057908</v>
+        <v>4841323.967708007</v>
       </c>
       <c r="K41">
-        <v>839.7792675539497</v>
+        <v>3984984.915507174</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>62.27927273821724</v>
+        <v>1116405.870237903</v>
       </c>
       <c r="G42">
-        <v>342.4998107954499</v>
+        <v>4841674.268009392</v>
       </c>
       <c r="H42">
-        <v>1275.940233452798</v>
+        <v>3986255.022586348</v>
       </c>
       <c r="I42">
-        <v>366.044386963871</v>
+        <v>1116838.352917613</v>
       </c>
       <c r="J42">
-        <v>53.67820247696656</v>
+        <v>4841275.316138814</v>
       </c>
       <c r="K42">
-        <v>452.8415258568778</v>
+        <v>3984697.914328608</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>61.35696504293544</v>
+        <v>1116405.235905773</v>
       </c>
       <c r="G43">
-        <v>355.2113077559643</v>
+        <v>4841690.78084491</v>
       </c>
       <c r="H43">
-        <v>1281.973075587638</v>
+        <v>3986263.962303238</v>
       </c>
       <c r="I43">
-        <v>425.8618073241728</v>
+        <v>1116916.71002111</v>
       </c>
       <c r="J43">
-        <v>5.259576348142319</v>
+        <v>4841226.664569621</v>
       </c>
       <c r="K43">
-        <v>45.48025698834505</v>
+        <v>3984395.764520853</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>60.47444520745455</v>
+        <v>1116404.628938391</v>
       </c>
       <c r="G44">
-        <v>367.9228047164787</v>
+        <v>4841707.293680429</v>
       </c>
       <c r="H44">
-        <v>1287.831334416981</v>
+        <v>3986272.643315311</v>
       </c>
       <c r="I44">
-        <v>487.1521766298291</v>
+        <v>1116996.996596193</v>
       </c>
       <c r="J44">
-        <v>-43.1590497806817</v>
+        <v>4841178.013000429</v>
       </c>
       <c r="K44">
-        <v>-382.3045390516477</v>
+        <v>3984078.466083907</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>59.62893311468042</v>
+        <v>1116404.047423687</v>
       </c>
       <c r="G45">
-        <v>380.6343016769929</v>
+        <v>4841723.806515948</v>
       </c>
       <c r="H45">
-        <v>1293.524830868891</v>
+        <v>3986281.080175626</v>
       </c>
       <c r="I45">
-        <v>549.9517648935315</v>
+        <v>1117079.260154325</v>
       </c>
       <c r="J45">
-        <v>-91.57767590950594</v>
+        <v>4841129.361431236</v>
       </c>
       <c r="K45">
-        <v>-830.5128622631029</v>
+        <v>3983746.01901777</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>58.81791315609076</v>
+        <v>1116403.489631509</v>
       </c>
       <c r="G46">
-        <v>393.3457986375074</v>
+        <v>4841740.319351465</v>
       </c>
       <c r="H46">
-        <v>1299.062579799101</v>
+        <v>3986289.286242773</v>
       </c>
       <c r="I46">
-        <v>614.2977352436662</v>
+        <v>1117163.549376895</v>
       </c>
       <c r="J46">
-        <v>-139.9963020383302</v>
+        <v>4841080.709862043</v>
       </c>
       <c r="K46">
-        <v>-1299.14471264602</v>
+        <v>3983398.423322444</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>58.03910273793279</v>
+        <v>1116402.953991967</v>
       </c>
       <c r="G47">
-        <v>406.0572955980217</v>
+        <v>4841756.832186985</v>
       </c>
       <c r="H47">
-        <v>1304.452875860255</v>
+        <v>3986297.273808113</v>
       </c>
       <c r="I47">
-        <v>680.2281659164656</v>
+        <v>1117249.914144026</v>
       </c>
       <c r="J47">
-        <v>-188.4149281671544</v>
+        <v>4841032.058292851</v>
       </c>
       <c r="K47">
-        <v>-1788.200090200398</v>
+        <v>3983035.678997927</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>57.29042525153621</v>
+        <v>1116402.43907684</v>
       </c>
       <c r="G48">
-        <v>418.768792558536</v>
+        <v>4841773.345022503</v>
       </c>
       <c r="H48">
-        <v>1309.70336823281</v>
+        <v>3986305.054206522</v>
       </c>
       <c r="I48">
-        <v>747.7820727896984</v>
+        <v>1117338.405564094</v>
       </c>
       <c r="J48">
-        <v>-236.8335542959782</v>
+        <v>4840983.406723659</v>
       </c>
       <c r="K48">
-        <v>-2297.678994926233</v>
+        <v>3982657.78604422</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>56.56998677884631</v>
+        <v>1116401.943583554</v>
       </c>
       <c r="G49">
-        <v>431.4802895190505</v>
+        <v>4841789.857858022</v>
       </c>
       <c r="H49">
-        <v>1314.821125907577</v>
+        <v>3986312.637913123</v>
       </c>
       <c r="I49">
-        <v>816.9994324712305</v>
+        <v>1117429.07600397</v>
       </c>
       <c r="J49">
-        <v>-285.2521804248025</v>
+        <v>4840934.755154467</v>
       </c>
       <c r="K49">
-        <v>-2827.581426823533</v>
+        <v>3982264.744461323</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>55.87605593821461</v>
+        <v>1116401.466321323</v>
       </c>
       <c r="G50">
-        <v>444.1917864795648</v>
+        <v>4841806.370693541</v>
       </c>
       <c r="H50">
-        <v>1319.81269491811</v>
+        <v>3986320.034628104</v>
       </c>
       <c r="I50">
-        <v>887.9212059561165</v>
+        <v>1117521.979120013</v>
       </c>
       <c r="J50">
-        <v>-333.6708065536267</v>
+        <v>4840886.103585274</v>
       </c>
       <c r="K50">
-        <v>-3377.907385892295</v>
+        <v>3981856.554249236</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>55.20704638219905</v>
+        <v>1116401.006199111</v>
       </c>
       <c r="G51">
-        <v>456.9032834400791</v>
+        <v>4841822.88352906</v>
       </c>
       <c r="H51">
-        <v>1324.684148685552</v>
+        <v>3986327.253351311</v>
       </c>
       <c r="I51">
-        <v>960.5893628662327</v>
+        <v>1117617.169889819</v>
       </c>
       <c r="J51">
-        <v>-382.0894326824509</v>
+        <v>4840837.452016082</v>
       </c>
       <c r="K51">
-        <v>-3948.656872132518</v>
+        <v>3981433.215407958</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>54.56150154466047</v>
+        <v>1116400.562215141</v>
       </c>
       <c r="G52">
-        <v>469.6147804005935</v>
+        <v>4841839.396364578</v>
       </c>
       <c r="H52">
-        <v>1329.441132447248</v>
+        <v>3986334.302448093</v>
       </c>
       <c r="I52">
-        <v>1035.046906286783</v>
+        <v>1117714.704644758</v>
       </c>
       <c r="J52">
-        <v>-430.5080588112752</v>
+        <v>4840788.800446889</v>
       </c>
       <c r="K52">
-        <v>-4539.829885544202</v>
+        <v>3980994.72793749</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>53.9380813033773</v>
+        <v>1116400.133447723</v>
       </c>
       <c r="G53">
-        <v>482.3262773611078</v>
+        <v>4841855.909200097</v>
       </c>
       <c r="H53">
-        <v>1334.088902584287</v>
+        <v>3986341.189707575</v>
       </c>
       <c r="I53">
-        <v>1111.337898214378</v>
+        <v>1117814.641103307</v>
       </c>
       <c r="J53">
-        <v>-478.926684940099</v>
+        <v>4840740.148877697</v>
       </c>
       <c r="K53">
-        <v>-5151.426426127342</v>
+        <v>3980541.091837832</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>53.33555028027049</v>
+        <v>1116399.719047204</v>
       </c>
       <c r="G54">
-        <v>495.0377743216222</v>
+        <v>4841872.422035616</v>
       </c>
       <c r="H54">
-        <v>1338.632361535054</v>
+        <v>3986347.922394394</v>
       </c>
       <c r="I54">
-        <v>1189.507485631766</v>
+        <v>1117917.038405207</v>
       </c>
       <c r="J54">
-        <v>-527.3453110689233</v>
+        <v>4840691.497308505</v>
       </c>
       <c r="K54">
-        <v>-5783.446493881948</v>
+        <v>3980072.307108984</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G55">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H55">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I55">
-        <v>-1466.077728038611</v>
+        <v>1114861.285030713</v>
       </c>
       <c r="J55">
-        <v>2347.140019219552</v>
+        <v>4843219.965668074</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984371.256178131</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G56">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H56">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I56">
-        <v>-1437.133449907253</v>
+        <v>1114890.899025254</v>
       </c>
       <c r="J56">
-        <v>2290.043974346726</v>
+        <v>4843171.314113078</v>
       </c>
       <c r="K56">
-        <v>215.1586062738863</v>
+        <v>3984675.052241398</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G57">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H57">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I57">
-        <v>-1407.476445555159</v>
+        <v>1114921.242237166</v>
       </c>
       <c r="J57">
-        <v>2232.947929473901</v>
+        <v>4843122.662558082</v>
       </c>
       <c r="K57">
-        <v>419.5884181873118</v>
+        <v>3984963.699640401</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G58">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H58">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I58">
-        <v>-1377.089164754838</v>
+        <v>1114952.332622756</v>
       </c>
       <c r="J58">
-        <v>2175.851884601077</v>
+        <v>4843074.011003085</v>
       </c>
       <c r="K58">
-        <v>613.289435740278</v>
+        <v>3985237.198375137</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G59">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H59">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I59">
-        <v>-1345.953625120594</v>
+        <v>1114984.188580489</v>
       </c>
       <c r="J59">
-        <v>2118.755839728251</v>
+        <v>4843025.35944809</v>
       </c>
       <c r="K59">
-        <v>796.2616589327835</v>
+        <v>3985495.548445608</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G60">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H60">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I60">
-        <v>-1314.051401467028</v>
+        <v>1115016.828961873</v>
       </c>
       <c r="J60">
-        <v>2061.659794855427</v>
+        <v>4842976.707893094</v>
       </c>
       <c r="K60">
-        <v>968.50508776483</v>
+        <v>3985738.749851813</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G61">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H61">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I61">
-        <v>-1281.363614905501</v>
+        <v>1115050.273082621</v>
       </c>
       <c r="J61">
-        <v>2004.563749982602</v>
+        <v>4842928.056338097</v>
       </c>
       <c r="K61">
-        <v>1130.019722236416</v>
+        <v>3985966.802593751</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G62">
-        <v>-126.9664724693403</v>
+        <v>4841124.154762444</v>
       </c>
       <c r="H62">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I62">
-        <v>-1247.870921672109</v>
+        <v>1115084.540734075</v>
       </c>
       <c r="J62">
-        <v>1947.467705109776</v>
+        <v>4842879.404783102</v>
       </c>
       <c r="K62">
-        <v>1280.805562347542</v>
+        <v>3986179.706671425</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>254.6274012238589</v>
+        <v>1116578.736791453</v>
       </c>
       <c r="G63">
-        <v>-106.0007339935753</v>
+        <v>4841140.667580261</v>
       </c>
       <c r="H63">
-        <v>1192.117083450339</v>
+        <v>3985220.890414094</v>
       </c>
       <c r="I63">
-        <v>-1213.553501680557</v>
+        <v>1115119.652194919</v>
       </c>
       <c r="J63">
-        <v>1890.371660236952</v>
+        <v>4842830.753228106</v>
       </c>
       <c r="K63">
-        <v>1420.862608098208</v>
+        <v>3986377.462084833</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>197.6205672806177</v>
+        <v>1116530.056217527</v>
       </c>
       <c r="G64">
-        <v>-85.03499551781032</v>
+        <v>4841157.180398078</v>
       </c>
       <c r="H64">
-        <v>1468.680224988424</v>
+        <v>3985420.144448985</v>
       </c>
       <c r="I64">
-        <v>-1178.391046793161</v>
+        <v>1115155.628243185</v>
       </c>
       <c r="J64">
-        <v>1833.275615364127</v>
+        <v>4842782.10167311</v>
       </c>
       <c r="K64">
-        <v>1550.190859488414</v>
+        <v>3986560.068833975</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>164.1319121104612</v>
+        <v>1116501.458822427</v>
       </c>
       <c r="G65">
-        <v>-64.06925704204535</v>
+        <v>4841173.693215895</v>
       </c>
       <c r="H65">
-        <v>1633.41537606453</v>
+        <v>3985538.830342404</v>
       </c>
       <c r="I65">
-        <v>-1142.362748803028</v>
+        <v>1115192.490168542</v>
       </c>
       <c r="J65">
-        <v>1776.179570491302</v>
+        <v>4842733.450118113</v>
       </c>
       <c r="K65">
-        <v>1668.79031651816</v>
+        <v>3986727.526918852</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>142.9914161150102</v>
+        <v>1116483.406048629</v>
       </c>
       <c r="G66">
-        <v>-43.10351856628038</v>
+        <v>4841190.206033712</v>
       </c>
       <c r="H66">
-        <v>1751.140454515408</v>
+        <v>3985623.647128758</v>
       </c>
       <c r="I66">
-        <v>-1105.447287120313</v>
+        <v>1115230.259784899</v>
       </c>
       <c r="J66">
-        <v>1719.083525618477</v>
+        <v>4842684.798563117</v>
       </c>
       <c r="K66">
-        <v>1776.660979187446</v>
+        <v>3986879.836339462</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>128.2481200220938</v>
+        <v>1116470.816117463</v>
       </c>
       <c r="G67">
-        <v>-22.1377800905154</v>
+        <v>4841206.718851529</v>
       </c>
       <c r="H67">
-        <v>1842.812910033849</v>
+        <v>3985689.69391485</v>
       </c>
       <c r="I67">
-        <v>-1067.622816155265</v>
+        <v>1115268.959443311</v>
       </c>
       <c r="J67">
-        <v>1661.987480745652</v>
+        <v>4842636.147008122</v>
       </c>
       <c r="K67">
-        <v>1873.802847496273</v>
+        <v>3987016.997095807</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>117.2491796254354</v>
+        <v>1116461.423651787</v>
       </c>
       <c r="G68">
-        <v>-1.172041614750437</v>
+        <v>4841223.231669346</v>
       </c>
       <c r="H68">
-        <v>1917.89976186726</v>
+        <v>3985743.791355717</v>
       </c>
       <c r="I68">
-        <v>-1028.866952390577</v>
+        <v>1115308.612045208</v>
       </c>
       <c r="J68">
-        <v>1604.891435872827</v>
+        <v>4842587.495453126</v>
       </c>
       <c r="K68">
-        <v>1960.215921444638</v>
+        <v>3987139.009187887</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>108.6495441917387</v>
+        <v>1116454.080055248</v>
       </c>
       <c r="G69">
-        <v>19.79369686101454</v>
+        <v>4841239.744487163</v>
       </c>
       <c r="H69">
-        <v>1981.492844295631</v>
+        <v>3985789.607939208</v>
       </c>
       <c r="I69">
-        <v>-989.1567611354246</v>
+        <v>1115349.241055948</v>
       </c>
       <c r="J69">
-        <v>1547.795391000002</v>
+        <v>4842538.84389813</v>
       </c>
       <c r="K69">
-        <v>2035.900201032544</v>
+        <v>3987245.872615701</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>101.6918129658904</v>
+        <v>1116448.138550943</v>
       </c>
       <c r="G70">
-        <v>40.75943533677952</v>
+        <v>4841256.257304979</v>
       </c>
       <c r="H70">
-        <v>2036.648261275869</v>
+        <v>3985829.345480944</v>
       </c>
       <c r="I70">
-        <v>-948.46874295332</v>
+        <v>1115390.870518699</v>
       </c>
       <c r="J70">
-        <v>1490.699346127177</v>
+        <v>4842490.192343134</v>
       </c>
       <c r="K70">
-        <v>2100.85568625999</v>
+        <v>3987337.587379248</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>95.91441686991408</v>
+        <v>1116443.204985293</v>
       </c>
       <c r="G71">
-        <v>61.72517381254448</v>
+        <v>4841272.770122797</v>
       </c>
       <c r="H71">
-        <v>2085.345036636918</v>
+        <v>3985864.429798119</v>
       </c>
       <c r="I71">
-        <v>-906.7788197557717</v>
+        <v>1115433.525068671</v>
       </c>
       <c r="J71">
-        <v>1433.603301254352</v>
+        <v>4842441.540788137</v>
       </c>
       <c r="K71">
-        <v>2155.082377126977</v>
+        <v>3987414.153478531</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>91.01850837361924</v>
+        <v>1116439.024159609</v>
       </c>
       <c r="G72">
-        <v>82.69091228830948</v>
+        <v>4841289.282940613</v>
       </c>
       <c r="H72">
-        <v>2128.938449782563</v>
+        <v>3985895.83732197</v>
       </c>
       <c r="I72">
-        <v>-864.0623205535095</v>
+        <v>1115477.229947696</v>
       </c>
       <c r="J72">
-        <v>1376.507256381527</v>
+        <v>4842392.889233142</v>
       </c>
       <c r="K72">
-        <v>2198.580273633503</v>
+        <v>3987475.570913548</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>86.80116085068749</v>
+        <v>1116435.422786166</v>
       </c>
       <c r="G73">
-        <v>103.6566507640744</v>
+        <v>4841305.795758431</v>
       </c>
       <c r="H73">
-        <v>2168.397412295038</v>
+        <v>3985924.266119276</v>
       </c>
       <c r="I73">
-        <v>-820.2939668568503</v>
+        <v>1115522.011019158</v>
       </c>
       <c r="J73">
-        <v>1319.411211508702</v>
+        <v>4842344.237678145</v>
       </c>
       <c r="K73">
-        <v>2231.349375779569</v>
+        <v>3987521.839684299</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>83.11919854550703</v>
+        <v>1116432.278601061</v>
       </c>
       <c r="G74">
-        <v>124.6223892398394</v>
+        <v>4841322.308576248</v>
       </c>
       <c r="H74">
-        <v>2204.438669041042</v>
+        <v>3985950.232579554</v>
       </c>
       <c r="I74">
-        <v>-775.4478577165581</v>
+        <v>1115567.894783308</v>
       </c>
       <c r="J74">
-        <v>1262.315166635877</v>
+        <v>4842295.58612315</v>
       </c>
       <c r="K74">
-        <v>2253.389683565175</v>
+        <v>3987552.959790784</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>79.8683738292586</v>
+        <v>1116429.502582784</v>
       </c>
       <c r="G75">
-        <v>145.5881277156044</v>
+        <v>4841338.821394064</v>
       </c>
       <c r="H75">
-        <v>2237.60735974437</v>
+        <v>3985974.129456838</v>
       </c>
       <c r="I75">
-        <v>-729.4974543963498</v>
+        <v>1115614.908392937</v>
       </c>
       <c r="J75">
-        <v>1205.219121763052</v>
+        <v>4842246.934568154</v>
       </c>
       <c r="K75">
-        <v>2264.701196990321</v>
+        <v>3987568.931233004</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>76.97076121888793</v>
+        <v>1116427.028187433</v>
       </c>
       <c r="G76">
-        <v>166.5538661913694</v>
+        <v>4841355.334211881</v>
       </c>
       <c r="H76">
-        <v>2268.327774652644</v>
+        <v>3985996.262437357</v>
       </c>
       <c r="I76">
-        <v>-682.4155646679774</v>
+        <v>1115663.079669452</v>
       </c>
       <c r="J76">
-        <v>1148.123076890228</v>
+        <v>4842198.283013158</v>
       </c>
       <c r="K76">
-        <v>2265.283916055007</v>
+        <v>3987569.754010958</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>74.36679867140991</v>
+        <v>1116424.804552431</v>
       </c>
       <c r="G77">
-        <v>187.5196046671344</v>
+        <v>4841371.847029699</v>
       </c>
       <c r="H77">
-        <v>2296.936630363508</v>
+        <v>3986016.8741136</v>
       </c>
       <c r="I77">
-        <v>-634.1743267195882</v>
+        <v>1115712.437119334</v>
       </c>
       <c r="J77">
-        <v>1091.027032017402</v>
+        <v>4842149.631458161</v>
       </c>
       <c r="K77">
-        <v>2255.137840759234</v>
+        <v>3987555.428124646</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>72.01008123524943</v>
+        <v>1116422.792050606</v>
       </c>
       <c r="G78">
-        <v>208.4853431428993</v>
+        <v>4841388.359847516</v>
       </c>
       <c r="H78">
-        <v>2323.705626507853</v>
+        <v>3986036.160235612</v>
       </c>
       <c r="I78">
-        <v>-584.7451926678447</v>
+        <v>1115763.009951012</v>
       </c>
       <c r="J78">
-        <v>1033.930987144578</v>
+        <v>4842100.979903165</v>
       </c>
       <c r="K78">
-        <v>2234.262971103</v>
+        <v>3987525.953574068</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>69.86384995982839</v>
+        <v>1116420.959291916</v>
       </c>
       <c r="G79">
-        <v>229.4510816186643</v>
+        <v>4841404.872665333</v>
       </c>
       <c r="H79">
-        <v>2348.857177219178</v>
+        <v>3986054.281044969</v>
       </c>
       <c r="I79">
-        <v>-534.0989116640467</v>
+        <v>1115814.828092143</v>
       </c>
       <c r="J79">
-        <v>976.8349422717527</v>
+        <v>4842052.32834817</v>
       </c>
       <c r="K79">
-        <v>2202.659307086306</v>
+        <v>3987481.330359225</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>67.89856080314584</v>
+        <v>1116419.281047442</v>
       </c>
       <c r="G80">
-        <v>250.4168200944292</v>
+        <v>4841421.385483149</v>
       </c>
       <c r="H80">
-        <v>2372.575654815154</v>
+        <v>3986071.369375453</v>
       </c>
       <c r="I80">
-        <v>-482.2055125842544</v>
+        <v>1115867.922207328</v>
       </c>
       <c r="J80">
-        <v>919.7388973989276</v>
+        <v>4842003.676793173</v>
       </c>
       <c r="K80">
-        <v>2160.326848709153</v>
+        <v>3987421.558480116</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>66.09016206727712</v>
+        <v>1116417.736778409</v>
       </c>
       <c r="G81">
-        <v>271.3825585701942</v>
+        <v>4841437.898300966</v>
       </c>
       <c r="H81">
-        <v>2395.015599420613</v>
+        <v>3986087.536567801</v>
       </c>
       <c r="I81">
-        <v>-429.0342862931743</v>
+        <v>1115922.323716254</v>
       </c>
       <c r="J81">
-        <v>862.6428525261028</v>
+        <v>4841955.025238178</v>
       </c>
       <c r="K81">
-        <v>2107.265595971539</v>
+        <v>3987346.637936742</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>64.41884878955581</v>
+        <v>1116416.309572511</v>
       </c>
       <c r="G82">
-        <v>292.3482970459592</v>
+        <v>4841454.411118784</v>
       </c>
       <c r="H82">
-        <v>2416.307826898938</v>
+        <v>3986102.876870248</v>
       </c>
       <c r="I82">
-        <v>-374.5537674713069</v>
+        <v>1115978.064812289</v>
       </c>
       <c r="J82">
-        <v>805.5468076532778</v>
+        <v>4841906.373683182</v>
       </c>
       <c r="K82">
-        <v>2043.475548873465</v>
+        <v>3987256.568729102</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>62.86814560371451</v>
+        <v>1116414.985360731</v>
       </c>
       <c r="G83">
-        <v>313.3140355217242</v>
+        <v>4841470.9239366</v>
       </c>
       <c r="H83">
-        <v>2436.564049413221</v>
+        <v>3986117.470767486</v>
       </c>
       <c r="I83">
-        <v>-318.7317159946094</v>
+        <v>1116035.178481532</v>
       </c>
       <c r="J83">
-        <v>748.4507627804527</v>
+        <v>4841857.722128185</v>
       </c>
       <c r="K83">
-        <v>1968.956707414931</v>
+        <v>3987151.350857196</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>61.42422045130197</v>
+        <v>1116413.752331281</v>
       </c>
       <c r="G84">
-        <v>334.2797739974891</v>
+        <v>4841487.436754418</v>
       </c>
       <c r="H84">
-        <v>2455.880423141843</v>
+        <v>3986131.387536667</v>
       </c>
       <c r="I84">
-        <v>-261.5350978556442</v>
+        <v>1116093.698522337</v>
       </c>
       <c r="J84">
-        <v>691.3547179076279</v>
+        <v>4841809.070573189</v>
       </c>
       <c r="K84">
-        <v>1883.709071595938</v>
+        <v>3987030.984321024</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>60.07536351601585</v>
+        <v>1116412.600484647</v>
       </c>
       <c r="G85">
-        <v>355.2455124732542</v>
+        <v>4841503.949572234</v>
       </c>
       <c r="H85">
-        <v>2474.340308853824</v>
+        <v>3986144.6872363</v>
       </c>
       <c r="I85">
-        <v>-202.9300656149307</v>
+        <v>1116153.65956531</v>
       </c>
       <c r="J85">
-        <v>634.2586730348029</v>
+        <v>4841760.419018193</v>
       </c>
       <c r="K85">
-        <v>1787.732641416484</v>
+        <v>3986895.469120587</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>58.81158636730324</v>
+        <v>1116411.521291283</v>
       </c>
       <c r="G86">
-        <v>376.2112509490191</v>
+        <v>4841520.462390051</v>
       </c>
       <c r="H86">
-        <v>2492.016446043024</v>
+        <v>3986157.422272634</v>
       </c>
       <c r="I86">
-        <v>-142.8819383709304</v>
+        <v>1116215.097093802</v>
       </c>
       <c r="J86">
-        <v>577.1626281619781</v>
+        <v>4841711.767463198</v>
       </c>
       <c r="K86">
-        <v>1681.02741687657</v>
+        <v>3986744.805255884</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>57.6243098737888</v>
+        <v>1116410.5074251</v>
       </c>
       <c r="G87">
-        <v>397.1769894247841</v>
+        <v>4841536.975207868</v>
       </c>
       <c r="H87">
-        <v>2508.972684044538</v>
+        <v>3986169.638646875</v>
       </c>
       <c r="I87">
-        <v>-81.35518123681059</v>
+        <v>1116278.047464912</v>
       </c>
       <c r="J87">
-        <v>520.0665832891531</v>
+        <v>4841663.115908202</v>
       </c>
       <c r="K87">
-        <v>1563.593397976197</v>
+        <v>3986578.992726916</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>56.50611856355857</v>
+        <v>1116409.552553711</v>
       </c>
       <c r="G88">
-        <v>418.1427279005491</v>
+        <v>4841553.488025685</v>
       </c>
       <c r="H88">
-        <v>2525.265374231796</v>
+        <v>3986181.37695821</v>
       </c>
       <c r="I88">
-        <v>-18.31338431184204</v>
+        <v>1116342.547930998</v>
       </c>
       <c r="J88">
-        <v>462.9705384163281</v>
+        <v>4841614.464353205</v>
       </c>
       <c r="K88">
-        <v>1435.430584715363</v>
+        <v>3986398.031533681</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>55.45056534159509</v>
+        <v>1116408.651171664</v>
       </c>
       <c r="G89">
-        <v>439.1084663763141</v>
+        <v>4841570.000843502</v>
       </c>
       <c r="H89">
-        <v>2540.944499927759</v>
+        <v>3986192.673217867</v>
       </c>
       <c r="I89">
-        <v>46.28075886501436</v>
+        <v>1116408.636661721</v>
       </c>
       <c r="J89">
-        <v>405.8744935435033</v>
+        <v>4841565.812798209</v>
       </c>
       <c r="K89">
-        <v>1296.538977094069</v>
+        <v>3986201.921676182</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>54.4520148069221</v>
+        <v>1116407.79846665</v>
       </c>
       <c r="G90">
-        <v>460.074204852079</v>
+        <v>4841586.513661319</v>
       </c>
       <c r="H90">
-        <v>2556.054601180012</v>
+        <v>3986203.559515388</v>
       </c>
       <c r="I90">
-        <v>112.4654733920787</v>
+        <v>1116476.352766638</v>
       </c>
       <c r="J90">
-        <v>348.7784486706782</v>
+        <v>4841517.161243213</v>
       </c>
       <c r="K90">
-        <v>1146.918575112316</v>
+        <v>3985990.663154416</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>53.50551646853297</v>
+        <v>1116406.990211233</v>
       </c>
       <c r="G91">
-        <v>481.039943327844</v>
+        <v>4841603.026479136</v>
       </c>
       <c r="H91">
-        <v>2570.635537529382</v>
+        <v>3986214.064568173</v>
       </c>
       <c r="I91">
-        <v>180.2799256255517</v>
+        <v>1116545.736318341</v>
       </c>
       <c r="J91">
-        <v>291.6824037978535</v>
+        <v>4841468.509688218</v>
       </c>
       <c r="K91">
-        <v>986.5693787701027</v>
+        <v>3985764.255968384</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>52.60670134564264</v>
+        <v>1116406.222674554</v>
       </c>
       <c r="G92">
-        <v>502.005681803609</v>
+        <v>4841619.539296953</v>
       </c>
       <c r="H92">
-        <v>2584.723121679605</v>
+        <v>3986224.214178016</v>
       </c>
       <c r="I92">
-        <v>249.7642463571211</v>
+        <v>1116616.828376173</v>
       </c>
       <c r="J92">
-        <v>234.5863589250284</v>
+        <v>4841419.858133221</v>
       </c>
       <c r="K92">
-        <v>815.4913880674285</v>
+        <v>3985522.700118087</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>51.75169702194612</v>
+        <v>1116405.49254979</v>
       </c>
       <c r="G93">
-        <v>522.9714202793739</v>
+        <v>4841636.052114771</v>
       </c>
       <c r="H93">
-        <v>2598.349649431902</v>
+        <v>3986234.031612911</v>
       </c>
       <c r="I93">
-        <v>320.9595545623032</v>
+        <v>1116689.671010525</v>
       </c>
       <c r="J93">
-        <v>177.4903140522034</v>
+        <v>4841371.206578225</v>
       </c>
       <c r="K93">
-        <v>633.6846030042949</v>
+        <v>3985265.995603525</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>50.93705738496213</v>
+        <v>1116404.796894158</v>
       </c>
       <c r="G94">
-        <v>543.9371587551389</v>
+        <v>4841652.564932587</v>
       </c>
       <c r="H94">
-        <v>2611.544345618414</v>
+        <v>3986243.53792832</v>
       </c>
       <c r="I94">
-        <v>393.9079817335543</v>
+        <v>1116764.307327735</v>
       </c>
       <c r="J94">
-        <v>120.3942691793786</v>
+        <v>4841322.55502323</v>
       </c>
       <c r="K94">
-        <v>441.1490235807016</v>
+        <v>3984994.142424696</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>50.15970414241045</v>
+        <v>1116404.133078974</v>
       </c>
       <c r="G95">
-        <v>564.9028972309038</v>
+        <v>4841669.077750404</v>
       </c>
       <c r="H95">
-        <v>2624.333741522998</v>
+        <v>3986252.752239106</v>
       </c>
       <c r="I95">
-        <v>468.6526968125765</v>
+        <v>1116840.781495591</v>
       </c>
       <c r="J95">
-        <v>63.29822430655354</v>
+        <v>4841273.903468234</v>
       </c>
       <c r="K95">
-        <v>237.8846497966478</v>
+        <v>3984707.140581602</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>49.41687785222459</v>
+        <v>1116403.498747831</v>
       </c>
       <c r="G96">
-        <v>585.8686357066689</v>
+        <v>4841685.590568221</v>
       </c>
       <c r="H96">
-        <v>2636.741996045155</v>
+        <v>3986261.691950905</v>
       </c>
       <c r="I96">
-        <v>545.2379317365421</v>
+        <v>1116919.138769476</v>
       </c>
       <c r="J96">
-        <v>6.2021794337285</v>
+        <v>4841225.251913237</v>
       </c>
       <c r="K96">
-        <v>23.8914816521341</v>
+        <v>3984404.990074242</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>48.70609669019014</v>
+        <v>1116402.891781393</v>
       </c>
       <c r="G97">
-        <v>606.8343741824339</v>
+        <v>4841702.103386038</v>
       </c>
       <c r="H97">
-        <v>2648.791170378985</v>
+        <v>3986270.372958032</v>
       </c>
       <c r="I97">
-        <v>623.7090076133854</v>
+        <v>1116999.425519143</v>
       </c>
       <c r="J97">
-        <v>-50.89386543909627</v>
+        <v>4841176.600358241</v>
       </c>
       <c r="K97">
-        <v>-200.8304808528389</v>
+        <v>3984087.690902617</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>48.02512155098696</v>
+        <v>1116402.310267594</v>
       </c>
       <c r="G98">
-        <v>627.8001126581987</v>
+        <v>4841718.616203855</v>
       </c>
       <c r="H98">
-        <v>2660.501464054385</v>
+        <v>3986278.809813542</v>
       </c>
       <c r="I98">
-        <v>704.1123615416304</v>
+        <v>1117081.689256159</v>
       </c>
       <c r="J98">
-        <v>-107.9899103119213</v>
+        <v>4841127.948803245</v>
       </c>
       <c r="K98">
-        <v>-436.2812377182726</v>
+        <v>3983755.243066726</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>47.3719263644047</v>
+        <v>1116401.752476284</v>
       </c>
       <c r="G99">
-        <v>648.7658511339638</v>
+        <v>4841735.129021672</v>
       </c>
       <c r="H99">
-        <v>2671.891418684395</v>
+        <v>3986287.015876016</v>
       </c>
       <c r="I99">
-        <v>786.4955740906297</v>
+        <v>1117165.978662017</v>
       </c>
       <c r="J99">
-        <v>-165.0859551847464</v>
+        <v>4841079.297248249</v>
       </c>
       <c r="K99">
-        <v>-682.4607889441669</v>
+        <v>3983407.646566569</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>46.74467273024563</v>
+        <v>1116401.216837576</v>
       </c>
       <c r="G100">
-        <v>669.7315896097288</v>
+        <v>4841751.641839488</v>
       </c>
       <c r="H100">
-        <v>2682.978094579711</v>
+        <v>3986295.003436808</v>
       </c>
       <c r="I100">
-        <v>870.9073974574821</v>
+        <v>1117252.343616949</v>
       </c>
       <c r="J100">
-        <v>-222.1820000575714</v>
+        <v>4841030.645693253</v>
       </c>
       <c r="K100">
-        <v>-939.3691345305207</v>
+        <v>3983044.901402147</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>46.14168814862428</v>
+        <v>1116400.70192325</v>
       </c>
       <c r="G101">
-        <v>690.6973280854937</v>
+        <v>4841768.154657306</v>
       </c>
       <c r="H101">
-        <v>2693.777224454015</v>
+        <v>3986302.783830784</v>
       </c>
       <c r="I101">
-        <v>957.3977843172894</v>
+        <v>1117340.835229442</v>
       </c>
       <c r="J101">
-        <v>-279.2780449303959</v>
+        <v>4840981.994138258</v>
       </c>
       <c r="K101">
-        <v>-1207.006274477332</v>
+        <v>3982667.007573458</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>45.56144725861208</v>
+        <v>1116400.206430734</v>
       </c>
       <c r="G102">
-        <v>711.6630665612587</v>
+        <v>4841784.667475122</v>
       </c>
       <c r="H102">
-        <v>2704.303347696076</v>
+        <v>3986310.367533067</v>
       </c>
       <c r="I102">
-        <v>1046.017917383823</v>
+        <v>1117431.505866482</v>
       </c>
       <c r="J102">
-        <v>-336.374089803221</v>
+        <v>4840933.342583261</v>
       </c>
       <c r="K102">
-        <v>-1485.372208784606</v>
+        <v>3982273.965080505</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>45.00255560604433</v>
+        <v>1116399.729169246</v>
       </c>
       <c r="G103">
-        <v>732.6288050370237</v>
+        <v>4841801.18029294</v>
       </c>
       <c r="H103">
-        <v>2714.569928084433</v>
+        <v>3986317.764243835</v>
       </c>
       <c r="I103">
-        <v>1136.820239698093</v>
+        <v>1117524.409184544</v>
       </c>
       <c r="J103">
-        <v>-393.470134676046</v>
+        <v>4840884.691028264</v>
       </c>
       <c r="K103">
-        <v>-1774.46693745234</v>
+        <v>3981865.773923285</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>44.46373554725463</v>
+        <v>1116399.26904775</v>
       </c>
       <c r="G104">
-        <v>753.5945435127886</v>
+        <v>4841817.693110758</v>
       </c>
       <c r="H104">
-        <v>2724.589457335871</v>
+        <v>3986324.982962931</v>
       </c>
       <c r="I104">
-        <v>1229.858485662746</v>
+        <v>1117619.600161344</v>
       </c>
       <c r="J104">
-        <v>-450.566179548871</v>
+        <v>4840836.039473269</v>
       </c>
       <c r="K104">
-        <v>-2074.290460480534</v>
+        <v>3981442.4341018</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>43.94381396439186</v>
+        <v>1116398.825064471</v>
       </c>
       <c r="G105">
-        <v>774.5602819885537</v>
+        <v>4841834.205928573</v>
       </c>
       <c r="H105">
-        <v>2734.373546485496</v>
+        <v>3986332.032055698</v>
       </c>
       <c r="I105">
-        <v>1325.187712840663</v>
+        <v>1117717.135128373</v>
       </c>
       <c r="J105">
-        <v>-507.6622244216961</v>
+        <v>4840787.387918273</v>
       </c>
       <c r="K105">
-        <v>-2384.842777869188</v>
+        <v>3981003.945616049</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>43.44171152349478</v>
+        <v>1116398.39629772</v>
       </c>
       <c r="G106">
-        <v>795.5260204643185</v>
+        <v>4841850.718746391</v>
       </c>
       <c r="H106">
-        <v>2743.933006775002</v>
+        <v>3986338.919311257</v>
       </c>
       <c r="I106">
-        <v>1422.864334536554</v>
+        <v>1117817.071804235</v>
       </c>
       <c r="J106">
-        <v>-564.7582692945206</v>
+        <v>4840738.736363278</v>
       </c>
       <c r="K106">
-        <v>-2706.123889618299</v>
+        <v>3980550.308466033</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>42.95643325149731</v>
+        <v>1116397.981897846</v>
       </c>
       <c r="G107">
-        <v>816.4917589400835</v>
+        <v>4841867.231564208</v>
       </c>
       <c r="H107">
-        <v>2753.277921462311</v>
+        <v>3986345.651994242</v>
       </c>
       <c r="I107">
-        <v>1522.946153180863</v>
+        <v>1117919.4693288</v>
       </c>
       <c r="J107">
-        <v>-621.8543141673456</v>
+        <v>4840690.084808281</v>
       </c>
       <c r="K107">
-        <v>-3038.133795727873</v>
+        <v>3980081.52265175</v>
       </c>
     </row>
   </sheetData>
